--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2268585.465516847</v>
+        <v>2381713.069185209</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867466</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161948</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5834967.877915344</v>
+        <v>6183113.467301052</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>174.681103313422</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -668,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>65.00318548127996</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>119.7766955875526</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.29874919800703</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>249.9399305751027</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,10 +913,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>51.28180484925447</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>26.07726775187097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>86.12939355780992</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>193.723760465999</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>14.94721823158767</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.84616021016284</v>
+        <v>162.6830949419551</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>333.1734078941233</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187.1159515048665</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>234.3692901880348</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>184.7955950621408</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1667,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>147.8989647993567</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1822,13 +1824,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>105.2198536997998</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>157.0860622474451</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -2020,7 +2022,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2239,13 +2241,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>137.5166236997811</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2254,7 +2256,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>102.1026425880272</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2482,10 +2484,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>49.25826344548423</v>
+        <v>251.3904593455503</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2713,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>51.69511841098215</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>35.9944862820957</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2959,7 +2961,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -3004,19 +3006,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3483355295592605</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>84.73839317073602</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>181.7276449166205</v>
+        <v>50.70473528786538</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3430,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871608</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.7177978711148</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.283897344658</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>110.3389598390204</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>100.3319289452765</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>173.7991912550155</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>57.38291290721378</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3952,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>258.0916905248123</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>415.6685459266216</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>168.9733955350553</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4189,10 +4191,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>64.28306684274149</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1820.815201993657</v>
+        <v>528.1740540056943</v>
       </c>
       <c r="C2" t="n">
-        <v>1644.36964309121</v>
+        <v>505.3137280593985</v>
       </c>
       <c r="D2" t="n">
-        <v>1625.117426316614</v>
+        <v>486.0615112848029</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.140486464472</v>
+        <v>60.08457143266043</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0163046538721</v>
+        <v>39.00079366246472</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="L2" t="n">
-        <v>493.6978991635576</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="N2" t="n">
-        <v>493.6978991635576</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="O2" t="n">
-        <v>815.1719019525203</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>1765.079687174587</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.920028249488</v>
+        <v>1353.359688342334</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.623162244782</v>
+        <v>948.0224182972244</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>996.5799837771733</v>
       </c>
       <c r="M3" t="n">
-        <v>493.6978991635576</v>
+        <v>996.5799837771733</v>
       </c>
       <c r="N3" t="n">
-        <v>850.0084995511718</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>767.7584289723903</v>
+        <v>878.3184210649846</v>
       </c>
       <c r="C4" t="n">
-        <v>595.7858658513063</v>
+        <v>706.3458579439006</v>
       </c>
       <c r="D4" t="n">
-        <v>595.7858658513063</v>
+        <v>543.0290850706713</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>376.8208792235249</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1813.018909688895</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1569.679561914795</v>
       </c>
       <c r="U4" t="n">
-        <v>1518.376561228814</v>
+        <v>1569.679561914795</v>
       </c>
       <c r="V4" t="n">
-        <v>1236.665093836843</v>
+        <v>1569.679561914795</v>
       </c>
       <c r="W4" t="n">
-        <v>1236.665093836843</v>
+        <v>1294.827158087308</v>
       </c>
       <c r="X4" t="n">
-        <v>994.1011972826483</v>
+        <v>1294.827158087308</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.7584289723903</v>
+        <v>1068.48438977705</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>791.8088229574817</v>
+        <v>831.8385222885896</v>
       </c>
       <c r="C5" t="n">
-        <v>364.9080929707818</v>
+        <v>808.9781963422938</v>
       </c>
       <c r="D5" t="n">
-        <v>345.6558761961861</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E5" t="n">
-        <v>93.19129985769854</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F5" t="n">
-        <v>72.10752208750284</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>493.6978991635576</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>950.4838058662885</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O5" t="n">
-        <v>950.4838058662885</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1624.67405208597</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1624.67405208597</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.67405208597</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X5" t="n">
-        <v>1616.994457294121</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.657187249012</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>765.3953884431487</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253902</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>1763.580312956633</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956633</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401.3226470302521</v>
+        <v>718.8967865794721</v>
       </c>
       <c r="C7" t="n">
-        <v>374.9819725334128</v>
+        <v>546.924223458388</v>
       </c>
       <c r="D7" t="n">
-        <v>374.9819725334128</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7737666862663</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786372</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V7" t="n">
-        <v>870.229311894705</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>870.229311894705</v>
+        <v>1377.969420155991</v>
       </c>
       <c r="X7" t="n">
-        <v>627.6654153405101</v>
+        <v>1135.405523601796</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.3226470302521</v>
+        <v>909.0627552915378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.947823099961</v>
+        <v>1133.6911139303</v>
       </c>
       <c r="C8" t="n">
-        <v>950.0470931132616</v>
+        <v>1110.830787984004</v>
       </c>
       <c r="D8" t="n">
-        <v>526.7544722982618</v>
+        <v>687.5381671690047</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>665.6016313572663</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>240.4774495466665</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>240.1787911765192</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>455.3583126271592</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.81305222845</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>2202.133457436601</v>
+        <v>1554.836344226536</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.796187391491</v>
+        <v>1553.53947822183</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>966.8891568663047</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1517.554691850743</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1517.554691850743</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N9" t="n">
-        <v>1517.554691850743</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O9" t="n">
-        <v>2068.220226835181</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>817.6261093758709</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="C10" t="n">
-        <v>645.6535462547869</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="D10" t="n">
-        <v>482.3367733815576</v>
+        <v>520.7596690940074</v>
       </c>
       <c r="E10" t="n">
-        <v>316.1285675344111</v>
+        <v>354.551463246861</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1981.571904688275</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1701.38745618858</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1419.675988796609</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1144.823584969122</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1144.823584969122</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>918.4808166588637</v>
+        <v>685.0860276212348</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2083.473310422947</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1656.572580436247</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.279959621247</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>807.3030197691047</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>807.3030197691047</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325881</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>432.8021663929549</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>432.8021663929549</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>432.8021663929549</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>1301.511172646689</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2170.220178900424</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3015.364829051236</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>3053.849899298784</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.935378802968</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3509.935378802968</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3251.58046939938</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3251.58046939938</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2915.04167354673</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2503.321674714477</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2503.321674714477</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>70.19870757605935</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>660.6836341443989</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>660.6836341443989</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6836341443989</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.688621118071</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1162.688621118071</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>981.5180558748566</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C13" t="n">
-        <v>809.5454927537726</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D13" t="n">
-        <v>646.2287198805433</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>480.0205140333969</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>480.0205140333969</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
-        <v>313.763544327629</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>169.9672758357834</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2250.611734989188</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2007.272387215088</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.087938715392</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="V13" t="n">
-        <v>1445.376471323421</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W13" t="n">
-        <v>1170.524067495934</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.524067495934</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y13" t="n">
-        <v>1170.524067495934</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1958.155397274987</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1531.254667288287</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.962046473287</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>681.9851066211448</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>256.860924810545</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>70.19870757605935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>70.19870757605935</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>432.8021663929549</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2017.019480622188</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2885.728486875923</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>2885.728486875923</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>2936.293564416882</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>2936.293564416882</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3392.379043921065</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3405.568084676108</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3405.568084676108</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3147.21317527252</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2789.72376039877</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2789.72376039877</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2378.003761566517</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2378.003761566517</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>341.8961968556504</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>1010.177331902835</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1878.886338156569</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>987.1228603945284</v>
+        <v>733.72140846125</v>
       </c>
       <c r="C16" t="n">
-        <v>815.1502972734444</v>
+        <v>561.748845340166</v>
       </c>
       <c r="D16" t="n">
-        <v>651.8335244002151</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E16" t="n">
-        <v>485.6253185530686</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F16" t="n">
-        <v>313.763544327629</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>313.763544327629</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>169.9672758357834</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605935</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2203.573121676361</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2033.438074195496</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1790.098726421396</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.9142779217</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V16" t="n">
-        <v>1403.631597416852</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W16" t="n">
-        <v>1403.631597416852</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X16" t="n">
-        <v>1403.631597416852</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1177.288829106594</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991802</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478503</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629315</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787243</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291426</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L18" t="n">
-        <v>730.647150085061</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M18" t="n">
-        <v>730.647150085061</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="N18" t="n">
-        <v>730.647150085061</v>
+        <v>4225.654392279955</v>
       </c>
       <c r="O18" t="n">
-        <v>730.647150085061</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E19" t="n">
-        <v>584.2177258288816</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5716,7 +5718,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5759,43 +5761,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5835,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5299206506891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>357.5299206506891</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.4214573370359</v>
+        <v>3890.832671800495</v>
       </c>
       <c r="C22" t="n">
-        <v>440.4214573370359</v>
+        <v>3718.860108679411</v>
       </c>
       <c r="D22" t="n">
-        <v>440.4214573370359</v>
+        <v>3555.543335806181</v>
       </c>
       <c r="E22" t="n">
-        <v>440.4214573370359</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S22" t="n">
-        <v>2179.581758406808</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T22" t="n">
-        <v>1936.242410632708</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="U22" t="n">
-        <v>1656.057962133013</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="V22" t="n">
-        <v>1374.346494741041</v>
+        <v>4824.7577092045</v>
       </c>
       <c r="W22" t="n">
-        <v>1099.494090913554</v>
+        <v>4549.905305377013</v>
       </c>
       <c r="X22" t="n">
-        <v>856.9301943593596</v>
+        <v>4307.341408822818</v>
       </c>
       <c r="Y22" t="n">
-        <v>630.5874260491016</v>
+        <v>4080.99864051256</v>
       </c>
     </row>
     <row r="23">
@@ -6075,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.8490191059097</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C25" t="n">
-        <v>431.8764559848257</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D25" t="n">
-        <v>268.5596831115964</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E25" t="n">
-        <v>268.5596831115964</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1819.485523901886</v>
+        <v>1785.44663613016</v>
       </c>
       <c r="V25" t="n">
-        <v>1537.774056509915</v>
+        <v>1785.44663613016</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.921652682428</v>
+        <v>1510.594232302672</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.357756128233</v>
+        <v>1268.030335748478</v>
       </c>
       <c r="Y25" t="n">
-        <v>794.0149878179755</v>
+        <v>1041.68756743822</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3114.325629236558</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>750.5367205716725</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2246.357673867345</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1966.173225367649</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1684.461757975678</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1409.609354148191</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1167.045457593996</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>940.7026892837382</v>
       </c>
     </row>
     <row r="29">
@@ -6476,10 +6478,10 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.3052888313966</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C31" t="n">
-        <v>678.3327257103126</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D31" t="n">
-        <v>678.3327257103126</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>512.1245198631661</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
         <v>512.1245198631661</v>
@@ -6652,19 +6654,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V31" t="n">
-        <v>1541.666429681207</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W31" t="n">
-        <v>1266.81402585372</v>
+        <v>1454.896928323097</v>
       </c>
       <c r="X31" t="n">
-        <v>1266.81402585372</v>
+        <v>1212.333031768902</v>
       </c>
       <c r="Y31" t="n">
-        <v>1040.471257543462</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>941.9189991784958</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="C34" t="n">
-        <v>769.9464360574118</v>
+        <v>847.2543031032136</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841825</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E34" t="n">
-        <v>440.421457337036</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V34" t="n">
-        <v>1685.678067870436</v>
+        <v>1781.179340507219</v>
       </c>
       <c r="W34" t="n">
-        <v>1410.825664042949</v>
+        <v>1506.326936679732</v>
       </c>
       <c r="X34" t="n">
-        <v>1168.261767488754</v>
+        <v>1263.763040125537</v>
       </c>
       <c r="Y34" t="n">
-        <v>941.9189991784958</v>
+        <v>1037.420271815279</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>207.5440612468773</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>923.0523692223763</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1852.677416841653</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2856.963518260711</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="36">
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7020,13 +7022,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.7107933313494</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>603.7382302102653</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>440.421457337036</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976741</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7114,31 +7116,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.832373618938</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X37" t="n">
-        <v>1033.268477064743</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8767620434151</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153418</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7257,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.6022263052665</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6296631841825</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>623.5780146500553</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631659</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1869.241345563992</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V40" t="n">
-        <v>1587.529878172021</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W40" t="n">
-        <v>1312.677474344533</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X40" t="n">
-        <v>1070.113577790339</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y40" t="n">
-        <v>968.7681950173321</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1924.486251105782</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1924.486251105782</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.193630290783</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1075.21669043864</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>650.0925086280406</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>245.7534462174892</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>70.19870757605938</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>70.19870757605938</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>70.19870757605938</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>101.5371021048566</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>970.2461083585912</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>1838.955114612326</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2684.099764763138</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P41" t="n">
-        <v>3392.379043921066</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q41" t="n">
-        <v>3392.379043921066</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>3509.935378802968</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3509.935378802968</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>3152.445963929218</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>2756.054614229565</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.334615397313</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2344.334615397313</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>660.683634144399</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>1497.482442227305</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M42" t="n">
-        <v>1497.482442227305</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N42" t="n">
-        <v>1497.482442227305</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O42" t="n">
-        <v>1497.482442227305</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>313.763544327629</v>
+        <v>3846.041991177094</v>
       </c>
       <c r="C43" t="n">
-        <v>313.763544327629</v>
+        <v>3674.06942805601</v>
       </c>
       <c r="D43" t="n">
-        <v>313.763544327629</v>
+        <v>3510.752655182781</v>
       </c>
       <c r="E43" t="n">
-        <v>313.763544327629</v>
+        <v>3344.544449335634</v>
       </c>
       <c r="F43" t="n">
-        <v>313.763544327629</v>
+        <v>3344.544449335634</v>
       </c>
       <c r="G43" t="n">
-        <v>313.763544327629</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H43" t="n">
-        <v>169.9672758357834</v>
+        <v>3034.491211138021</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605938</v>
+        <v>2934.722642878297</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>2992.213971102455</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>3218.741572308292</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>3573.430893602713</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>3964.616688572964</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>4697.536328128763</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>4988.135540050664</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="R43" t="n">
-        <v>2203.573121676361</v>
+        <v>5068.097056978599</v>
       </c>
       <c r="S43" t="n">
-        <v>2033.438074195496</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T43" t="n">
-        <v>1790.098726421396</v>
+        <v>4654.622661723633</v>
       </c>
       <c r="U43" t="n">
-        <v>1529.400049123606</v>
+        <v>4654.622661723633</v>
       </c>
       <c r="V43" t="n">
-        <v>1247.688581731634</v>
+        <v>4372.911194331662</v>
       </c>
       <c r="W43" t="n">
-        <v>972.8361779041476</v>
+        <v>4372.911194331662</v>
       </c>
       <c r="X43" t="n">
-        <v>730.2722813499527</v>
+        <v>4130.347297777467</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.9295130396947</v>
+        <v>3904.004529467209</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2172.406839743751</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>1745.506109757051</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1325.638891649353</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>899.6619517972106</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>474.5377699866108</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G44" t="n">
-        <v>70.19870757605938</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H44" t="n">
-        <v>70.19870757605938</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>432.8021663929549</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1148.310474368454</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1359.30527900522</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2228.014285258955</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2228.014285258955</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
-        <v>2228.014285258955</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P44" t="n">
-        <v>2936.293564416882</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q44" t="n">
-        <v>3392.379043921066</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>3405.568084676109</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>3184.642513720742</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2926.287604317155</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>2568.798189443404</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>2172.406839743751</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>2172.406839743751</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.406839743751</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>660.683634144399</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>660.683634144399</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>1529.392640398134</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N45" t="n">
-        <v>1529.392640398134</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1529.392640398134</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>981.4072669792122</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="C46" t="n">
-        <v>981.4072669792122</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="D46" t="n">
-        <v>818.0904941059829</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="E46" t="n">
-        <v>651.8822882588364</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="F46" t="n">
-        <v>480.0205140333969</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G46" t="n">
-        <v>313.763544327629</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H46" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I46" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302413</v>
       </c>
       <c r="M46" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N46" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P46" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q46" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R46" t="n">
-        <v>2203.573121676361</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S46" t="n">
-        <v>2033.438074195496</v>
+        <v>2065.542080025262</v>
       </c>
       <c r="T46" t="n">
-        <v>1790.098726421396</v>
+        <v>1822.202732251162</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.166335671152</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V46" t="n">
-        <v>1725.166335671152</v>
+        <v>1260.306816359495</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.313931843665</v>
+        <v>985.4544125320078</v>
       </c>
       <c r="X46" t="n">
-        <v>1207.75003528947</v>
+        <v>742.8905159778129</v>
       </c>
       <c r="Y46" t="n">
-        <v>981.4072669792122</v>
+        <v>516.547747667555</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,16 +7990,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1121742943703</v>
+        <v>521.1676505099917</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>500.5723185172002</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.175924987301</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>381.2527255747682</v>
+        <v>396.9701573582144</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8143,19 +8145,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>280.9953380591392</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>110.4928214404737</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>362.2965767485775</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>107.9828757122324</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>184.5908146029608</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8532,13 +8534,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,10 +8549,10 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>180.044604464622</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>914.9151076001737</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>914.7634675351879</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>76.44917014108813</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4187726313924</v>
+        <v>49.30979242058187</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>915.7958871333648</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>914.9151076001737</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O14" t="n">
-        <v>88.46679525598223</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>698.1282300549384</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N15" t="n">
-        <v>898.8268729142835</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>995.9774475394107</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9185,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>60.75701611917185</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>949.834293434791</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>280.320346557523</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>882.2851839951743</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -10124,13 +10126,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>143.6953511146608</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>313.2411601358238</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>135.7243512442217</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10670,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>104.5829721389275</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608524</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>535.9688468101303</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>398.5805034488242</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>69.96698640110492</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>914.9151076001739</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>914.7634675351882</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798424</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,7 +11144,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11154,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11300,16 +11302,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>251.4381077222858</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>914.9151076001739</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934414</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>900.5806252130701</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>374.7947783345615</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>59.25402830853324</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.148357520078491</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>43.01331382666396</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>215.500076724305</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.78464034514028</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>173.6744990182516</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>7.460061541229834</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>165.764160956837</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>27.02950008889385</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>66.33105441802925</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.1243405692145</v>
+        <v>25.9921446691485</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>204.9114680142633</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.5460171884921</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>187.3654866184761</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>97.16670780143087</v>
+        <v>228.189617430186</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.44967133089057</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.3615427560406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>54.20716394965454</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>123.7474116818789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>121.09050348569</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>130.8813961177312</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>19.29091348988641</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3.391148680228127</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>19.2909134898897</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>213.0995371719573</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>532587.8430750936</v>
+        <v>533276.2886106829</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532587.8430750936</v>
+        <v>535505.3242199315</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416768.2009076863</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416768.2009076863</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534724.9429392185</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534724.9429392185</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534724.9429392186</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416768.2009076864</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416768.2009076864</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>509637.3345097677</v>
       </c>
       <c r="C2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097676</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
-        <v>383306.1080120999</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="F2" t="n">
-        <v>383306.1080120999</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="H2" t="n">
         <v>491776.6027452663</v>
-      </c>
-      <c r="H2" t="n">
-        <v>491776.6027452662</v>
       </c>
       <c r="I2" t="n">
         <v>491776.6027452663</v>
@@ -26341,19 +26343,19 @@
         <v>491776.6027452663</v>
       </c>
       <c r="L2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="M2" t="n">
+        <v>491776.6027452661</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>491776.6027452663</v>
-      </c>
-      <c r="N2" t="n">
-        <v>491776.6027452665</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383306.1080120999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383306.1080121</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863025</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731536</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.28809514517</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184160.7703768716</v>
+        <v>179728.0181786384</v>
       </c>
       <c r="C4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>34072.4282095622</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="F4" t="n">
-        <v>34072.4282095622</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389553</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
@@ -26442,22 +26444,22 @@
         <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>34072.42820956221</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="P4" t="n">
-        <v>34072.4282095622</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.0177578051</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109170.1292445473</v>
+        <v>104743.3974393769</v>
       </c>
       <c r="C6" t="n">
-        <v>263795.8498626677</v>
+        <v>253408.5107562708</v>
       </c>
       <c r="D6" t="n">
-        <v>247358.9515681184</v>
+        <v>276815.3444298831</v>
       </c>
       <c r="E6" t="n">
-        <v>199962.6786461024</v>
+        <v>154538.7835463004</v>
       </c>
       <c r="F6" t="n">
-        <v>295882.6620447325</v>
+        <v>370278.1401029411</v>
       </c>
       <c r="G6" t="n">
-        <v>260287.8096297875</v>
+        <v>370278.1401029412</v>
       </c>
       <c r="H6" t="n">
+        <v>370278.1401029411</v>
+      </c>
+      <c r="I6" t="n">
+        <v>370278.1401029411</v>
+      </c>
+      <c r="J6" t="n">
+        <v>243700.8715226524</v>
+      </c>
+      <c r="K6" t="n">
+        <v>351631.5397459212</v>
+      </c>
+      <c r="L6" t="n">
         <v>370278.140102941</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>190214.2686477734</v>
+      </c>
+      <c r="N6" t="n">
         <v>370278.140102941</v>
       </c>
-      <c r="J6" t="n">
-        <v>249555.6231601841</v>
-      </c>
-      <c r="K6" t="n">
-        <v>370278.140102941</v>
-      </c>
-      <c r="L6" t="n">
-        <v>346278.050202491</v>
-      </c>
-      <c r="M6" t="n">
-        <v>290219.8520077959</v>
-      </c>
-      <c r="N6" t="n">
-        <v>370278.1401029413</v>
-      </c>
       <c r="O6" t="n">
-        <v>295882.6620447325</v>
+        <v>370278.1401029411</v>
       </c>
       <c r="P6" t="n">
-        <v>295882.6620447327</v>
+        <v>370278.1401029411</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007419</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007421</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007421</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721147</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.556104457262</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851478</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721147</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>247.9506193734109</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>190.7681748282719</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>44.76942820112238</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>94.13494780804946</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>171.7772398785183</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>302.6327158757585</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>144.1755697380022</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>75.55421158668707</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>101.1659342747066</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>377.4802179710689</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.41814881478216</v>
+        <v>25.58121408298987</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O2" t="n">
-        <v>324.7212149383462</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>462.9969567069689</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9096973612265</v>
+        <v>375.6271291446727</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34863,19 +34865,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>258.4961505607147</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>324.7212149383462</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>85.46778899800287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>158.2737632597933</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4838447007419</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>877.4838447007419</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>38.87380833085683</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.0757444178507</v>
+        <v>27.96676420704021</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>877.4838447007419</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4838447007419</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O14" t="n">
-        <v>51.07583589995814</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>675.0314495426104</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N15" t="n">
-        <v>877.4838447007419</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>958.5461846399789</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35905,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>928.4912652212494</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,16 +36606,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>844.8942246391501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>106.3043917586367</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>106.3043917586351</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391503</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752659</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>376.8096622439955</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>31.654943968482</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4838447007421</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>877.4838447007421</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,7 +37864,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>213.1260652896629</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4838447007421</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454767</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>877.4838447007421</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>353.0239371297328</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711533</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2381713.069185209</v>
+        <v>2381016.407980119</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114761</v>
+        <v>612367.9462114739</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>169.2143446374563</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>65.00318548127996</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>74.29874919800703</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>45.0998847100668</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>51.28180484925447</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>100.5100806441133</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>86.12939355780992</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>164.4369732840332</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>187.6213617118728</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>193.723760465999</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.6830949419551</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1311,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,13 +1378,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026595</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>121.2482518332287</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>234.3692901880348</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446616</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>147.8989647993567</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1827,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>232.2921244649829</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095534</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.378995526348206</v>
+        <v>98.15366458399264</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868341</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2095,13 +2095,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396296</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>137.5166236997811</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>251.3904593455503</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.56826410135605</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T28" t="n">
-        <v>35.9944862820957</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>170.1431564831851</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716802</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W31" t="n">
-        <v>84.73839317073602</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>188.2643090249449</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.252837489873</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399515</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060564</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.9059542963589</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146986</v>
       </c>
       <c r="V34" t="n">
-        <v>50.70473528786538</v>
+        <v>278.8943527180513</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>272.103879789212</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>240.1382575886528</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271553</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407046</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3441,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.77886795121402</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>260.4446813871608</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.283897344658</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.3389598390204</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.38291290721378</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>12.78863522924343</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886751</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087103</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>142.3583058069273</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060566</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486175</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>422.631722686833</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396256</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.9733955350553</v>
+        <v>188.2643090249451</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898733</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831853</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686248</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.9059542963591</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>240.138257588653</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>224.0793406271555</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>528.1740540056943</v>
+        <v>677.161098635831</v>
       </c>
       <c r="C2" t="n">
-        <v>505.3137280593985</v>
+        <v>654.3007726895352</v>
       </c>
       <c r="D2" t="n">
-        <v>486.0615112848029</v>
+        <v>231.0081518745354</v>
       </c>
       <c r="E2" t="n">
-        <v>60.08457143266043</v>
+        <v>60.0845714326604</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246472</v>
+        <v>39.00079366246469</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J2" t="n">
         <v>401.3055941092129</v>
@@ -4342,40 +4342,40 @@
         <v>401.3055941092129</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516409</v>
+        <v>880.2445183516406</v>
       </c>
       <c r="O2" t="n">
-        <v>1359.183442594069</v>
+        <v>1359.183442594068</v>
       </c>
       <c r="P2" t="n">
-        <v>1817.550429733968</v>
+        <v>1479.021285111686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733968</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489011</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489011</v>
+        <v>1714.181193660503</v>
       </c>
       <c r="U2" t="n">
-        <v>1765.079687174587</v>
+        <v>1455.826284256915</v>
       </c>
       <c r="V2" t="n">
-        <v>1765.079687174587</v>
+        <v>1098.336869383164</v>
       </c>
       <c r="W2" t="n">
-        <v>1765.079687174587</v>
+        <v>701.9455196835113</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.359688342334</v>
+        <v>694.2659248916626</v>
       </c>
       <c r="Y2" t="n">
-        <v>948.0224182972244</v>
+        <v>692.969058886957</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000781</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231741</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231741</v>
+        <v>46.14877825422923</v>
       </c>
       <c r="K3" t="n">
-        <v>517.6410595347454</v>
+        <v>525.0877024966569</v>
       </c>
       <c r="L3" t="n">
-        <v>996.5799837771733</v>
+        <v>1004.026626739085</v>
       </c>
       <c r="M3" t="n">
-        <v>996.5799837771733</v>
+        <v>1368.4508416304</v>
       </c>
       <c r="N3" t="n">
-        <v>1368.450841630399</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1368.450841630399</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>878.3184210649846</v>
+        <v>955.6262881107864</v>
       </c>
       <c r="C4" t="n">
-        <v>706.3458579439006</v>
+        <v>783.6537249897024</v>
       </c>
       <c r="D4" t="n">
-        <v>543.0290850706713</v>
+        <v>620.3369521164731</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8208792235249</v>
+        <v>454.1287462693266</v>
       </c>
       <c r="F4" t="n">
-        <v>204.9591049980853</v>
+        <v>282.266972043887</v>
       </c>
       <c r="G4" t="n">
-        <v>38.70213529231741</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231741</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231741</v>
+        <v>38.70213529231739</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981546</v>
+        <v>165.7127968734981</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925754</v>
+        <v>520.4021181679188</v>
       </c>
       <c r="M4" t="n">
-        <v>1011.104852762826</v>
+        <v>911.5879131381696</v>
       </c>
       <c r="N4" t="n">
-        <v>1388.596363638862</v>
+        <v>1289.079424014205</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.50755269397</v>
+        <v>1644.507552693969</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S4" t="n">
-        <v>1813.018909688895</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="T4" t="n">
-        <v>1569.679561914795</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="U4" t="n">
-        <v>1569.679561914795</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="V4" t="n">
-        <v>1569.679561914795</v>
+        <v>1889.551325514792</v>
       </c>
       <c r="W4" t="n">
-        <v>1294.827158087308</v>
+        <v>1614.698921687305</v>
       </c>
       <c r="X4" t="n">
-        <v>1294.827158087308</v>
+        <v>1372.13502513311</v>
       </c>
       <c r="Y4" t="n">
-        <v>1068.48438977705</v>
+        <v>1145.792256822852</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.8385222885896</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,16 +4573,16 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2068.744155457482</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>2068.744155457482</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.68688658012</v>
+        <v>1392.755783351088</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1145.829295018124</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8967865794721</v>
+        <v>712.093719702862</v>
       </c>
       <c r="C7" t="n">
-        <v>546.924223458388</v>
+        <v>540.121156581778</v>
       </c>
       <c r="D7" t="n">
-        <v>459.9248360262568</v>
+        <v>376.8043837085487</v>
       </c>
       <c r="E7" t="n">
-        <v>459.9248360262568</v>
+        <v>210.5961778614023</v>
       </c>
       <c r="F7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.533291375449</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W7" t="n">
-        <v>1377.969420155991</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X7" t="n">
-        <v>1135.405523601796</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y7" t="n">
-        <v>909.0627552915378</v>
+        <v>902.2596884149276</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1133.6911139303</v>
+        <v>737.2997642306473</v>
       </c>
       <c r="C8" t="n">
-        <v>1110.830787984004</v>
+        <v>714.4394382843515</v>
       </c>
       <c r="D8" t="n">
-        <v>687.5381671690047</v>
+        <v>695.1872215097558</v>
       </c>
       <c r="E8" t="n">
-        <v>665.6016313572663</v>
+        <v>673.2506856980174</v>
       </c>
       <c r="F8" t="n">
-        <v>240.4774495466665</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>240.1787911765192</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4843,13 +4843,13 @@
         <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X8" t="n">
-        <v>1554.836344226536</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y8" t="n">
-        <v>1553.53947822183</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L9" t="n">
-        <v>44.49822504924753</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M9" t="n">
-        <v>287.7093087981016</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7093087981016</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.7596690940074</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>520.7596690940074</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>520.7596690940074</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>354.551463246861</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.0860276212348</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="N11" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O11" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W11" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5108,40 +5108,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G12" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>692.7876399741682</v>
       </c>
       <c r="L12" t="n">
-        <v>1801.283937336665</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M12" t="n">
-        <v>1801.283937336665</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.9189991784957</v>
+        <v>496.5168264363626</v>
       </c>
       <c r="C13" t="n">
-        <v>769.9464360574117</v>
+        <v>324.5442633152786</v>
       </c>
       <c r="D13" t="n">
-        <v>606.6296631841824</v>
+        <v>324.5442633152786</v>
       </c>
       <c r="E13" t="n">
-        <v>440.4214573370359</v>
+        <v>324.5442633152786</v>
       </c>
       <c r="F13" t="n">
-        <v>268.5596831115964</v>
+        <v>324.5442633152786</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>324.5442633152786</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.1967591005</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976536</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656299</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.7156105782</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818962</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506135</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.677127506135</v>
       </c>
       <c r="T13" t="n">
-        <v>2112.580693338092</v>
+        <v>1992.337779732035</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.844036582501</v>
+        <v>1712.153331232339</v>
       </c>
       <c r="V13" t="n">
-        <v>1875.844036582501</v>
+        <v>1430.441863840368</v>
       </c>
       <c r="W13" t="n">
-        <v>1600.991632755014</v>
+        <v>1155.589460012881</v>
       </c>
       <c r="X13" t="n">
-        <v>1358.427736200819</v>
+        <v>913.0255634586862</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.084967890561</v>
+        <v>686.6827951484282</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5345,31 +5345,31 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G15" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506466</v>
       </c>
       <c r="M15" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N15" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.72140846125</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C16" t="n">
-        <v>561.748845340166</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D16" t="n">
-        <v>412.355951603442</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="F16" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358286</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302495</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.1967591005</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976536</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656299</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.7156105782</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818962</v>
       </c>
       <c r="R16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818962</v>
       </c>
       <c r="S16" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338097</v>
       </c>
       <c r="T16" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563997</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064301</v>
       </c>
       <c r="V16" t="n">
-        <v>1477.48047715319</v>
+        <v>1307.34542967233</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.628073325703</v>
+        <v>1072.706920111741</v>
       </c>
       <c r="X16" t="n">
-        <v>960.064176771508</v>
+        <v>830.1430235575463</v>
       </c>
       <c r="Y16" t="n">
-        <v>733.72140846125</v>
+        <v>603.8002552472883</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5509,43 +5509,43 @@
         <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2837.654482149733</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>3813.905540636434</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787246</v>
       </c>
       <c r="Q17" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710918</v>
+        <v>700.23428293608</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710918</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M18" t="n">
-        <v>3306.448039710918</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>4225.654392279955</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E19" t="n">
-        <v>516.5477476675582</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M19" t="n">
         <v>1132.196759100495</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5731,49 +5731,49 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988734</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.067963188322</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3890.832671800495</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3718.860108679411</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3555.543335806181</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5068.0970569786</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4824.7577092045</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4824.7577092045</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4824.7577092045</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4549.905305377013</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>4307.341408822818</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>4080.99864051256</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.68756743822</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C25" t="n">
-        <v>869.7150043171358</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D25" t="n">
-        <v>706.3982314439065</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6180,19 +6180,19 @@
         <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.44663613016</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>1785.44663613016</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.594232302672</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.030335748478</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.68756743822</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6302,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>750.5367205716725</v>
+        <v>648.2727960958175</v>
       </c>
       <c r="C28" t="n">
-        <v>578.5641574505885</v>
+        <v>476.3002329747336</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>440.3726934784144</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,52 +6384,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299867</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818967</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818967</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338102</v>
       </c>
       <c r="T28" t="n">
-        <v>2246.357673867345</v>
+        <v>1869.241345564002</v>
       </c>
       <c r="U28" t="n">
-        <v>1966.173225367649</v>
+        <v>1589.056897064307</v>
       </c>
       <c r="V28" t="n">
-        <v>1684.461757975678</v>
+        <v>1307.345429672336</v>
       </c>
       <c r="W28" t="n">
-        <v>1409.609354148191</v>
+        <v>1307.345429672336</v>
       </c>
       <c r="X28" t="n">
-        <v>1167.045457593996</v>
+        <v>1064.781533118141</v>
       </c>
       <c r="Y28" t="n">
-        <v>940.7026892837382</v>
+        <v>838.4387648078831</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,19 +6539,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.167063056836</v>
+        <v>446.1370507523519</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.164487631268</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299867</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822123</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048023</v>
       </c>
       <c r="U31" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V31" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.896928323097</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.333031768902</v>
+        <v>862.6457877746753</v>
       </c>
       <c r="Y31" t="n">
-        <v>1212.333031768902</v>
+        <v>636.3030194644175</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,19 +6776,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.2543031032136</v>
+        <v>373.4203922683217</v>
       </c>
       <c r="C34" t="n">
-        <v>847.2543031032136</v>
+        <v>201.4478291472378</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>201.4478291472378</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>201.4478291472378</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299867</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302448</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100496</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976532</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656295</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818958</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2112.580693338093</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563993</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1589.056897064298</v>
       </c>
       <c r="V34" t="n">
-        <v>1781.179340507219</v>
+        <v>1307.345429672327</v>
       </c>
       <c r="W34" t="n">
-        <v>1506.326936679732</v>
+        <v>1032.49302584484</v>
       </c>
       <c r="X34" t="n">
-        <v>1263.763040125537</v>
+        <v>789.9291292906451</v>
       </c>
       <c r="Y34" t="n">
-        <v>1037.420271815279</v>
+        <v>563.5863609803872</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988729</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5440612468773</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>923.0523692223763</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1852.677416841653</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2856.963518260711</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747412</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7116,31 +7116,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818954</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818954</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818954</v>
+        <v>2265.767389353084</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818954</v>
+        <v>2265.767389353084</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818954</v>
+        <v>1985.582940853388</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1703.871473461417</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,58 +7162,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>292.0244587153418</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>1007.532766690841</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690841</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109899</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.0699265966</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747412</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7244,34 +7244,34 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>786.8947875232845</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>786.8947875232845</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>623.5780146500553</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>512.1245198631659</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.403524545608</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>977.0607562353503</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
         <v>839.4070255988738</v>
@@ -7411,7 +7411,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
@@ -7420,37 +7420,37 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
@@ -7481,31 +7481,31 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>1194.79262694784</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3846.041991177094</v>
+        <v>935.3163081599848</v>
       </c>
       <c r="C43" t="n">
-        <v>3674.06942805601</v>
+        <v>763.3437450389007</v>
       </c>
       <c r="D43" t="n">
-        <v>3510.752655182781</v>
+        <v>750.4259316760285</v>
       </c>
       <c r="E43" t="n">
-        <v>3344.544449335634</v>
+        <v>584.217725828882</v>
       </c>
       <c r="F43" t="n">
-        <v>3344.544449335634</v>
+        <v>412.3559516034422</v>
       </c>
       <c r="G43" t="n">
-        <v>3178.287479629867</v>
+        <v>246.0989818976743</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138021</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878297</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102455</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308292</v>
+        <v>386.3216428358235</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602713</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572964</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128763</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050664</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291425</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.097056978599</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338091</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723633</v>
+        <v>1869.241345563991</v>
       </c>
       <c r="U43" t="n">
-        <v>4654.622661723633</v>
+        <v>1869.241345563991</v>
       </c>
       <c r="V43" t="n">
-        <v>4372.911194331662</v>
+        <v>1869.241345563991</v>
       </c>
       <c r="W43" t="n">
-        <v>4372.911194331662</v>
+        <v>1594.388941736504</v>
       </c>
       <c r="X43" t="n">
-        <v>4130.347297777467</v>
+        <v>1351.825045182309</v>
       </c>
       <c r="Y43" t="n">
-        <v>3904.004529467209</v>
+        <v>1125.482276872051</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988729</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883215</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623564</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813277</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109903</v>
       </c>
       <c r="N44" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596604</v>
       </c>
       <c r="O44" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747416</v>
       </c>
       <c r="P44" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q44" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409527</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291429</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209202</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805614</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931864</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232211</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399958</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354849</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L45" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
         <v>1910.990343986338</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.8675501573981</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C46" t="n">
-        <v>345.8675501573981</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D46" t="n">
-        <v>345.8675501573981</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="E46" t="n">
-        <v>345.8675501573981</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="F46" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573981</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655525</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
         <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358236</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302413</v>
+        <v>741.0109641302442</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100492</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976528</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656291</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578192</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818954</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.677127506127</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025262</v>
+        <v>2185.297351822125</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251162</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751466</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1260.306816359495</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4544125320078</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X46" t="n">
-        <v>742.8905159778129</v>
+        <v>862.6457877746763</v>
       </c>
       <c r="Y46" t="n">
-        <v>516.547747667555</v>
+        <v>636.3030194644182</v>
       </c>
     </row>
   </sheetData>
@@ -7990,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884136</v>
+        <v>521.0563139884134</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099917</v>
+        <v>521.1676505099915</v>
       </c>
       <c r="P2" t="n">
-        <v>500.5723185172002</v>
+        <v>158.6236875856031</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.175924987301</v>
+        <v>506.1759249873007</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681972</v>
+        <v>506.2917778681969</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>391.2020480793128</v>
       </c>
       <c r="N3" t="n">
-        <v>396.9701573582144</v>
+        <v>505.119719367509</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587963</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>149.2582520094601</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>280.9953380591392</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8221,10 +8221,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>110.4928214404737</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8312,13 +8312,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>184.5908146029608</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
@@ -8461,22 +8461,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733347</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8698,19 +8698,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055974</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8777,10 +8777,10 @@
         <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>408.353241046938</v>
       </c>
       <c r="N12" t="n">
-        <v>49.30979242058187</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>848.7638096822436</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>625.477964353639</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335786</v>
+        <v>997.28080024535</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350208</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>129.135014084331</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692493</v>
       </c>
       <c r="N18" t="n">
-        <v>949.834293434791</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9959,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>997.2808002453501</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>135.7243512442217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,13 +10594,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>221.0580860608524</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>535.9688468101303</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>399.0776271704632</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.60750039798424</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>529.5908311320803</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,7 +11305,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330667</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>54.56363491934414</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,13 +11381,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524252</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>21.11005397369843</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>43.01331382666396</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.78464034514028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23703,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>39.81175532422924</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,16 +23901,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>165.764160956837</v>
+        <v>71.98949189919254</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>27.02950008889385</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.326677470262837</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.9921446691485</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>126.1153410431408</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>204.9114680142633</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.5577190788884</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>187.3654866184761</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.6836051444969</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.5461237886749</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.98949189918991</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.358305806927</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712668</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969848</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>228.189617430186</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>151.6548290548425</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>18.44967133089057</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>54.20716394965454</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.8813961177312</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.8949699152537</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712688</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969868</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040146989</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180515</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.2909134898897</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919412</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534724.9429392186</v>
+        <v>534724.9429392187</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534724.9429392186</v>
+        <v>534724.9429392187</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534724.9429392185</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>534724.9429392186</v>
+        <v>534724.9429392188</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>534724.9429392185</v>
+        <v>534724.9429392186</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534724.9429392186</v>
+        <v>534724.9429392185</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509637.3345097677</v>
+        <v>509637.3345097678</v>
       </c>
       <c r="C2" t="n">
         <v>509637.3345097678</v>
       </c>
       <c r="D2" t="n">
-        <v>509637.3345097678</v>
+        <v>509637.3345097677</v>
       </c>
       <c r="E2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="F2" t="n">
         <v>491776.6027452662</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>491776.6027452664</v>
+      </c>
+      <c r="I2" t="n">
         <v>491776.6027452665</v>
       </c>
-      <c r="H2" t="n">
-        <v>491776.6027452663</v>
-      </c>
-      <c r="I2" t="n">
-        <v>491776.6027452663</v>
-      </c>
       <c r="J2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452666</v>
       </c>
       <c r="K2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="L2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="M2" t="n">
-        <v>491776.6027452661</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="N2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="O2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="P2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452665</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695911</v>
+        <v>162124.696069591</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361233</v>
+        <v>23406.83367361243</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701988</v>
+        <v>18646.60035701996</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551675</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="F4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="G4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389553</v>
+        <v>43748.40045389551</v>
       </c>
       <c r="I4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389573</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389561</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389561</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389548</v>
       </c>
       <c r="P4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389542</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216123</v>
+        <v>63041.22282216122</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842971</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26493,25 +26493,25 @@
         <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
+        <v>77750.0621884297</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77750.0621884297</v>
+      </c>
+      <c r="L5" t="n">
+        <v>77750.0621884297</v>
+      </c>
+      <c r="M5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
-      <c r="L5" t="n">
-        <v>77750.06218842969</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77750.06218842966</v>
-      </c>
-      <c r="N5" t="n">
-        <v>77750.06218842966</v>
-      </c>
       <c r="O5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.0621884297</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104743.3974393769</v>
+        <v>104743.3974393772</v>
       </c>
       <c r="C6" t="n">
-        <v>253408.5107562708</v>
+        <v>253408.5107562706</v>
       </c>
       <c r="D6" t="n">
-        <v>276815.3444298831</v>
+        <v>276815.3444298829</v>
       </c>
       <c r="E6" t="n">
-        <v>154538.7835463004</v>
+        <v>154487.7528841163</v>
       </c>
       <c r="F6" t="n">
-        <v>370278.1401029411</v>
+        <v>370227.1094407567</v>
       </c>
       <c r="G6" t="n">
-        <v>370278.1401029412</v>
+        <v>370227.1094407568</v>
       </c>
       <c r="H6" t="n">
-        <v>370278.1401029411</v>
+        <v>370227.109440757</v>
       </c>
       <c r="I6" t="n">
-        <v>370278.1401029411</v>
+        <v>370227.1094407569</v>
       </c>
       <c r="J6" t="n">
-        <v>243700.8715226524</v>
+        <v>243649.8408604682</v>
       </c>
       <c r="K6" t="n">
-        <v>351631.5397459212</v>
+        <v>351580.5090837367</v>
       </c>
       <c r="L6" t="n">
-        <v>370278.140102941</v>
+        <v>370227.1094407568</v>
       </c>
       <c r="M6" t="n">
-        <v>190214.2686477734</v>
+        <v>190163.2379855891</v>
       </c>
       <c r="N6" t="n">
-        <v>370278.140102941</v>
+        <v>370227.1094407567</v>
       </c>
       <c r="O6" t="n">
-        <v>370278.1401029411</v>
+        <v>370227.1094407569</v>
       </c>
       <c r="P6" t="n">
-        <v>370278.1401029411</v>
+        <v>370227.1094407571</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.556104457262</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162648</v>
+        <v>72.45112196162677</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>252.5028258161647</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>190.7681748282719</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>94.13494780804946</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>233.7944680079846</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>302.6327158757585</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>307.0927181998169</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.55421158668707</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.706183199152008</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>233.2515782806209</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>101.1659342747066</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.58121408298987</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,13 +28098,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>4.839427964367426e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-4.469477151088676e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.012701199622825e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.92001399178857e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.573974667076856e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-8.325659131715321e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>9.391157702856121e-12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.001189520560353e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30510,13 +30510,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,10 +30696,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.001189520560353e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="P2" t="n">
-        <v>462.9969567069689</v>
+        <v>121.0483257753719</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539676</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>368.1052675669848</v>
       </c>
       <c r="N3" t="n">
-        <v>375.6271291446727</v>
+        <v>483.7766911539674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539676</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>128.2935975567482</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>258.4961505607147</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34941,10 +34941,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>162.8199733981321</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
@@ -35181,22 +35181,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35418,19 +35418,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061656</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35497,10 +35497,10 @@
         <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>385.25646053461</v>
       </c>
       <c r="N12" t="n">
-        <v>27.96676420704021</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366218</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35652,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>811.4841868477976</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434077</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212506</v>
+        <v>974.184019733022</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937798</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>734.964600335589</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>94.1023641895345</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>377.7345989569213</v>
       </c>
       <c r="N18" t="n">
-        <v>928.4912652212494</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>974.1840197330221</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127082</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L28" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O28" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P28" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391629</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127082</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L31" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M31" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O31" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127082</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>228.815758793775</v>
       </c>
       <c r="L34" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115362</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366171</v>
       </c>
       <c r="N34" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404403</v>
       </c>
       <c r="O34" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977406</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968698</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391536</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3043917586351</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,13 +37314,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391503</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>191.6381265752659</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>512.8720662978023</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.4828257933862</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>507.0757444178507</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127063</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,7 +38025,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>267.0533324336349</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>19.53098502454767</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107108</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127063</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937748</v>
       </c>
       <c r="L46" t="n">
-        <v>358.272041711533</v>
+        <v>358.272041711536</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366169</v>
       </c>
       <c r="N46" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404401</v>
       </c>
       <c r="O46" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977404</v>
       </c>
       <c r="P46" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968696</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391534</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
